--- a/data/class_roll_DS2020_2401.xlsx
+++ b/data/class_roll_DS2020_2401.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/DS2020/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC04AB0D-B588-DA4D-AF82-2FEA9313CE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCA5F87-5848-1E41-853D-D4EFFD57DCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47660" yWindow="2800" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="280">
   <si>
     <t>번호</t>
   </si>
@@ -871,6 +871,10 @@
   </si>
   <si>
     <t>관객평가참여</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조정출석</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1266,10 +1270,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1282,7 +1286,7 @@
     <col min="9" max="9" width="20" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1316,8 +1320,11 @@
       <c r="K1" s="4" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="L1" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -1351,8 +1358,11 @@
       <c r="K2" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="L2" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -1386,8 +1396,11 @@
       <c r="K3" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="L3" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
@@ -1421,8 +1434,11 @@
       <c r="K4" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="L4" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
@@ -1456,8 +1472,11 @@
       <c r="K5" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="L5" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>37</v>
       </c>
@@ -1491,8 +1510,11 @@
       <c r="K6" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="L6" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>43</v>
       </c>
@@ -1526,8 +1548,11 @@
       <c r="K7" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="L7" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>48</v>
       </c>
@@ -1561,8 +1586,11 @@
       <c r="K8" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="L8" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>53</v>
       </c>
@@ -1596,8 +1624,11 @@
       <c r="K9" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="L9" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>58</v>
       </c>
@@ -1631,8 +1662,11 @@
       <c r="K10" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="L10" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>63</v>
       </c>
@@ -1666,8 +1700,11 @@
       <c r="K11" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="L11" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>70</v>
       </c>
@@ -1701,8 +1738,11 @@
       <c r="K12" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="L12" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>75</v>
       </c>
@@ -1736,8 +1776,11 @@
       <c r="K13" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="L13" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>80</v>
       </c>
@@ -1771,8 +1814,11 @@
       <c r="K14" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="L14" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>85</v>
       </c>
@@ -1806,8 +1852,11 @@
       <c r="K15" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="L15" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>90</v>
       </c>
@@ -1841,8 +1890,11 @@
       <c r="K16" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="L16" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>95</v>
       </c>
@@ -1876,8 +1928,11 @@
       <c r="K17" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="L17" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>100</v>
       </c>
@@ -1911,8 +1966,11 @@
       <c r="K18" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="L18" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>106</v>
       </c>
@@ -1946,8 +2004,11 @@
       <c r="K19" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="L19" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>113</v>
       </c>
@@ -1981,8 +2042,11 @@
       <c r="K20" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="L20" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>118</v>
       </c>
@@ -2016,8 +2080,11 @@
       <c r="K21" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="L21" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>123</v>
       </c>
@@ -2051,8 +2118,11 @@
       <c r="K22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="L22" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>129</v>
       </c>
@@ -2086,8 +2156,11 @@
       <c r="K23" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="L23" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>134</v>
       </c>
@@ -2121,8 +2194,11 @@
       <c r="K24" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="L24" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>139</v>
       </c>
@@ -2156,8 +2232,11 @@
       <c r="K25" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="L25" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>144</v>
       </c>
@@ -2191,8 +2270,11 @@
       <c r="K26" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="L26" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>149</v>
       </c>
@@ -2226,8 +2308,11 @@
       <c r="K27" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="L27" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>154</v>
       </c>
@@ -2261,8 +2346,11 @@
       <c r="K28" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="L28" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>159</v>
       </c>
@@ -2296,8 +2384,11 @@
       <c r="K29" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="L29" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>164</v>
       </c>
@@ -2331,8 +2422,11 @@
       <c r="K30" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="L30" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>169</v>
       </c>
@@ -2366,8 +2460,11 @@
       <c r="K31" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="L31" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A32" s="3" t="s">
         <v>174</v>
       </c>
@@ -2401,8 +2498,11 @@
       <c r="K32" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="L32" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A33" s="3" t="s">
         <v>179</v>
       </c>
@@ -2436,8 +2536,11 @@
       <c r="K33" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="L33" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>184</v>
       </c>
@@ -2471,8 +2574,11 @@
       <c r="K34" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="L34" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>189</v>
       </c>
@@ -2506,8 +2612,11 @@
       <c r="K35" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="L35" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>194</v>
       </c>
@@ -2541,8 +2650,11 @@
       <c r="K36" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="L36" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A37" s="3" t="s">
         <v>199</v>
       </c>
@@ -2576,8 +2688,11 @@
       <c r="K37" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="L37" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>204</v>
       </c>
@@ -2611,8 +2726,11 @@
       <c r="K38" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="L38" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>209</v>
       </c>
@@ -2646,8 +2764,11 @@
       <c r="K39" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="L39" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>214</v>
       </c>
@@ -2681,8 +2802,11 @@
       <c r="K40" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="L40" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A41" s="3" t="s">
         <v>219</v>
       </c>
@@ -2716,8 +2840,11 @@
       <c r="K41" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="L41" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A42" s="3" t="s">
         <v>224</v>
       </c>
@@ -2751,8 +2878,11 @@
       <c r="K42" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="L42" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A43" s="3" t="s">
         <v>229</v>
       </c>
@@ -2786,8 +2916,11 @@
       <c r="K43" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="L43" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A44" s="3" t="s">
         <v>234</v>
       </c>
@@ -2821,8 +2954,11 @@
       <c r="K44" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="L44" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A45" s="3" t="s">
         <v>239</v>
       </c>
@@ -2856,8 +2992,11 @@
       <c r="K45" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="L45" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A46" s="3" t="s">
         <v>244</v>
       </c>
@@ -2891,8 +3030,11 @@
       <c r="K46" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="L46" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>249</v>
       </c>
@@ -2926,8 +3068,11 @@
       <c r="K47" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="L47" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A48" s="3" t="s">
         <v>254</v>
       </c>
@@ -2961,8 +3106,11 @@
       <c r="K48" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="L48" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A49" s="3" t="s">
         <v>259</v>
       </c>
@@ -2996,8 +3144,11 @@
       <c r="K49" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="L49" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A50" s="3" t="s">
         <v>265</v>
       </c>
@@ -3031,8 +3182,11 @@
       <c r="K50" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="L50" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A51" s="3" t="s">
         <v>271</v>
       </c>
@@ -3064,6 +3218,9 @@
         <v>19</v>
       </c>
       <c r="K51" s="1">
+        <v>20</v>
+      </c>
+      <c r="L51" s="1">
         <v>20</v>
       </c>
     </row>
